--- a/attached_assets/GASTOS_LOCALES_DESTINO_FCL_LCL_AEREO_1765807726298.xlsx
+++ b/attached_assets/GASTOS_LOCALES_DESTINO_FCL_LCL_AEREO_1765807726298.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abenincasa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\proyectos\clone_ag__prueba_pytoflutter_importayaia_v2\referencia-ImportaYAia-python\attached_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87D7D6E-9E38-47B2-A5BE-DE697CD1236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37864DAC-F5A4-45B6-97CD-40B37024A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C0A05B20-C635-429B-A0ED-631FA24298CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C0A05B20-C635-429B-A0ED-631FA24298CC}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCALES DESTINO FCL" sheetId="1" r:id="rId1"/>
@@ -422,60 +422,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -507,15 +464,57 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BF5FDB-82D8-450B-8481-25D155683B34}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -868,772 +867,757 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="12"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15"/>
+      <c r="A3" s="3"/>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="19"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="27">
-        <v>100</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="B6" s="12">
+        <v>100</v>
+      </c>
+      <c r="C6" s="12">
         <v>130</v>
       </c>
-      <c r="D6" s="27">
-        <v>100</v>
-      </c>
-      <c r="E6" s="27">
-        <v>100</v>
-      </c>
-      <c r="F6" s="27">
+      <c r="D6" s="12">
+        <v>100</v>
+      </c>
+      <c r="E6" s="12">
+        <v>100</v>
+      </c>
+      <c r="F6" s="12">
         <v>265</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="12">
         <v>120</v>
       </c>
-      <c r="H6" s="27">
-        <v>100</v>
-      </c>
-      <c r="I6" s="27">
+      <c r="H6" s="12">
+        <v>100</v>
+      </c>
+      <c r="I6" s="12">
         <v>290</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="12">
         <v>135</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="12">
         <v>145</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="12">
         <v>90</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="12">
         <v>115</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="12">
         <v>190</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="12">
         <v>160</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="12">
         <v>160</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q6" s="12">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="27">
-        <v>200</v>
-      </c>
-      <c r="C7" s="27">
+      <c r="B7" s="12">
+        <v>200</v>
+      </c>
+      <c r="C7" s="12">
         <v>192</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="12">
         <v>205</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="12">
         <v>190</v>
       </c>
-      <c r="F7" s="27">
-        <v>200</v>
-      </c>
-      <c r="G7" s="27">
-        <v>200</v>
-      </c>
-      <c r="H7" s="27">
+      <c r="F7" s="12">
+        <v>200</v>
+      </c>
+      <c r="G7" s="12">
+        <v>200</v>
+      </c>
+      <c r="H7" s="12">
         <v>210</v>
       </c>
-      <c r="I7" s="27">
-        <v>200</v>
-      </c>
-      <c r="J7" s="28">
+      <c r="I7" s="12">
+        <v>200</v>
+      </c>
+      <c r="J7" s="13">
         <v>225</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="12">
         <v>175</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="12">
         <v>175</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="12">
         <v>195</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="12">
         <v>195</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O7" s="12">
         <v>210</v>
       </c>
-      <c r="P7" s="27">
-        <v>200</v>
-      </c>
-      <c r="Q7" s="27">
+      <c r="P7" s="12">
+        <v>200</v>
+      </c>
+      <c r="Q7" s="12">
         <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="12">
         <v>324</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="12">
         <v>230</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="12">
         <v>305</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="12">
         <v>305</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="12">
         <v>302</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="12">
         <v>395</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="12">
         <v>158</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="12">
         <v>120</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="12">
         <v>315</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="12">
         <v>289</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="12">
         <v>279</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="12">
         <v>443</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="12">
         <v>420</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="12">
         <v>335</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="12">
         <v>360</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="12">
         <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="27">
-        <v>100</v>
-      </c>
-      <c r="C9" s="27">
-        <v>100</v>
-      </c>
-      <c r="D9" s="27">
-        <v>100</v>
-      </c>
-      <c r="E9" s="27">
-        <v>100</v>
-      </c>
-      <c r="F9" s="27">
-        <v>100</v>
-      </c>
-      <c r="G9" s="27">
-        <v>100</v>
-      </c>
-      <c r="H9" s="27">
-        <v>100</v>
-      </c>
-      <c r="I9" s="27">
-        <v>100</v>
-      </c>
-      <c r="J9" s="27">
-        <v>100</v>
-      </c>
-      <c r="K9" s="27">
-        <v>100</v>
-      </c>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
-      <c r="M9" s="27">
-        <v>100</v>
-      </c>
-      <c r="N9" s="27">
-        <v>100</v>
-      </c>
-      <c r="O9" s="27">
-        <v>100</v>
-      </c>
-      <c r="P9" s="27">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="29">
+      <c r="B9" s="12">
+        <v>100</v>
+      </c>
+      <c r="C9" s="12">
+        <v>100</v>
+      </c>
+      <c r="D9" s="12">
+        <v>100</v>
+      </c>
+      <c r="E9" s="12">
+        <v>100</v>
+      </c>
+      <c r="F9" s="12">
+        <v>100</v>
+      </c>
+      <c r="G9" s="12">
+        <v>100</v>
+      </c>
+      <c r="H9" s="12">
+        <v>100</v>
+      </c>
+      <c r="I9" s="12">
+        <v>100</v>
+      </c>
+      <c r="J9" s="12">
+        <v>100</v>
+      </c>
+      <c r="K9" s="12">
+        <v>100</v>
+      </c>
+      <c r="L9" s="12">
+        <v>100</v>
+      </c>
+      <c r="M9" s="12">
+        <v>100</v>
+      </c>
+      <c r="N9" s="12">
+        <v>100</v>
+      </c>
+      <c r="O9" s="12">
+        <v>100</v>
+      </c>
+      <c r="P9" s="12">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="12">
         <f>B6+B8+B7+B9</f>
         <v>724</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="12">
         <f t="shared" ref="C10:Q10" si="0">C6+C8+C7+C9</f>
         <v>652</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>710</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="12">
         <f t="shared" si="0"/>
         <v>695</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="12">
         <f t="shared" si="0"/>
         <v>867</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="12">
         <f t="shared" si="0"/>
         <v>815</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="12">
         <f t="shared" si="0"/>
         <v>568</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="12">
         <f t="shared" si="0"/>
         <v>710</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="12">
         <f t="shared" si="0"/>
         <v>775</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="12">
         <f t="shared" si="0"/>
         <v>709</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="12">
         <f t="shared" si="0"/>
         <v>644</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="12">
         <f t="shared" si="0"/>
         <v>853</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="12">
         <f t="shared" si="0"/>
         <v>905</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="12">
         <f t="shared" si="0"/>
         <v>805</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="12">
         <f t="shared" si="0"/>
         <v>820</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="Q10" s="14">
         <f t="shared" si="0"/>
         <v>770</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="4"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="28"/>
     </row>
     <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
     </row>
     <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="23" t="s">
+      <c r="N14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="23" t="s">
+      <c r="O14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P14" s="23" t="s">
+      <c r="P14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="23" t="s">
+      <c r="Q14" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="24">
-        <v>100</v>
-      </c>
-      <c r="C15" s="24">
-        <v>100</v>
-      </c>
-      <c r="D15" s="24">
-        <v>100</v>
-      </c>
-      <c r="E15" s="24">
-        <v>100</v>
-      </c>
-      <c r="F15" s="24">
+      <c r="B15" s="9">
+        <v>100</v>
+      </c>
+      <c r="C15" s="9">
+        <v>100</v>
+      </c>
+      <c r="D15" s="9">
+        <v>100</v>
+      </c>
+      <c r="E15" s="9">
+        <v>100</v>
+      </c>
+      <c r="F15" s="9">
         <v>165</v>
       </c>
-      <c r="G15" s="24">
-        <v>100</v>
-      </c>
-      <c r="H15" s="24">
-        <v>100</v>
-      </c>
-      <c r="I15" s="24">
-        <v>100</v>
-      </c>
-      <c r="J15" s="24">
+      <c r="G15" s="9">
+        <v>100</v>
+      </c>
+      <c r="H15" s="9">
+        <v>100</v>
+      </c>
+      <c r="I15" s="9">
+        <v>100</v>
+      </c>
+      <c r="J15" s="9">
         <v>125</v>
       </c>
-      <c r="K15" s="24">
-        <v>100</v>
-      </c>
-      <c r="L15" s="24">
-        <v>100</v>
-      </c>
-      <c r="M15" s="24">
+      <c r="K15" s="9">
+        <v>100</v>
+      </c>
+      <c r="L15" s="9">
+        <v>100</v>
+      </c>
+      <c r="M15" s="9">
         <v>125</v>
       </c>
-      <c r="N15" s="24">
-        <v>100</v>
-      </c>
-      <c r="O15" s="24">
-        <v>100</v>
-      </c>
-      <c r="P15" s="24">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="24">
+      <c r="N15" s="9">
+        <v>100</v>
+      </c>
+      <c r="O15" s="9">
+        <v>100</v>
+      </c>
+      <c r="P15" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="24">
-        <v>200</v>
-      </c>
-      <c r="C16" s="24">
-        <v>200</v>
-      </c>
-      <c r="D16" s="24">
-        <v>200</v>
-      </c>
-      <c r="E16" s="24">
-        <v>200</v>
-      </c>
-      <c r="F16" s="24">
+      <c r="B16" s="9">
+        <v>200</v>
+      </c>
+      <c r="C16" s="9">
+        <v>200</v>
+      </c>
+      <c r="D16" s="9">
+        <v>200</v>
+      </c>
+      <c r="E16" s="9">
+        <v>200</v>
+      </c>
+      <c r="F16" s="9">
         <v>195</v>
       </c>
-      <c r="G16" s="24">
-        <v>200</v>
-      </c>
-      <c r="H16" s="24">
-        <v>200</v>
-      </c>
-      <c r="I16" s="24">
-        <v>200</v>
-      </c>
-      <c r="J16" s="24">
+      <c r="G16" s="9">
+        <v>200</v>
+      </c>
+      <c r="H16" s="9">
+        <v>200</v>
+      </c>
+      <c r="I16" s="9">
+        <v>200</v>
+      </c>
+      <c r="J16" s="9">
         <v>225</v>
       </c>
-      <c r="K16" s="24">
-        <v>200</v>
-      </c>
-      <c r="L16" s="24">
-        <v>200</v>
-      </c>
-      <c r="M16" s="24">
-        <v>200</v>
-      </c>
-      <c r="N16" s="24">
-        <v>200</v>
-      </c>
-      <c r="O16" s="24">
-        <v>200</v>
-      </c>
-      <c r="P16" s="24">
-        <v>200</v>
-      </c>
-      <c r="Q16" s="24">
+      <c r="K16" s="9">
+        <v>200</v>
+      </c>
+      <c r="L16" s="9">
+        <v>200</v>
+      </c>
+      <c r="M16" s="9">
+        <v>200</v>
+      </c>
+      <c r="N16" s="9">
+        <v>200</v>
+      </c>
+      <c r="O16" s="9">
+        <v>200</v>
+      </c>
+      <c r="P16" s="9">
+        <v>200</v>
+      </c>
+      <c r="Q16" s="9">
         <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="9">
         <v>450</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="9">
         <v>450</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="9">
         <v>450</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="9">
         <v>450</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="9">
         <v>440</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="9">
         <v>450</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="9">
         <v>400</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="9">
         <v>450</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="9">
         <v>450</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="9">
         <v>450</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="9">
         <v>400</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="9">
         <v>450</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="9">
         <v>450</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="9">
         <v>500</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="9">
         <v>500</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="9">
         <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="9">
         <v>50</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="9">
         <v>50</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="9">
         <v>50</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="9">
         <v>50</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="9">
         <v>50</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="9">
         <v>50</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="9">
         <v>50</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="9">
         <v>50</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="9">
         <v>50</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="9">
         <v>50</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="9">
         <v>50</v>
       </c>
-      <c r="M18" s="24">
-        <v>100</v>
-      </c>
-      <c r="N18" s="24">
-        <v>100</v>
-      </c>
-      <c r="O18" s="24">
+      <c r="M18" s="9">
+        <v>100</v>
+      </c>
+      <c r="N18" s="9">
+        <v>100</v>
+      </c>
+      <c r="O18" s="9">
         <v>50</v>
       </c>
-      <c r="P18" s="24">
+      <c r="P18" s="9">
         <v>50</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="9">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="9">
         <f>SUM(B15:B18)</f>
         <v>800</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="9">
         <f t="shared" ref="C19:Q19" si="1">SUM(C15:C18)</f>
         <v>800</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="9">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="9">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="9">
         <f t="shared" si="1"/>
         <v>850</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="9">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="9">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="9">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="9">
         <f t="shared" si="1"/>
         <v>850</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="9">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="9">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="9">
         <f t="shared" si="1"/>
         <v>875</v>
       </c>
-      <c r="N19" s="24">
+      <c r="N19" s="9">
         <f t="shared" si="1"/>
         <v>850</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O19" s="9">
         <f t="shared" si="1"/>
         <v>850</v>
       </c>
-      <c r="P19" s="24">
+      <c r="P19" s="9">
         <f t="shared" si="1"/>
         <v>850</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q19" s="9">
         <f t="shared" si="1"/>
         <v>850</v>
       </c>
@@ -1665,42 +1649,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="20">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1725,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066945CA-D339-44C4-AA22-0B9115BFF53E}">
   <dimension ref="B5:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1734,76 +1718,76 @@
     <col min="2" max="2" width="48.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="59.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="21">
         <v>35</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="21">
         <v>50</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="21">
         <v>50</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="21">
         <v>15</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="2:5" ht="62.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
